--- a/data_struct.xlsx
+++ b/data_struct.xlsx
@@ -5646,9 +5646,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y24" sqref="Y24"/>
+      <selection pane="topRight" activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
